--- a/relatorios/repasses_liberados/dentistas/09197406422/2023-08-25_relatorio_repasses_09197406422.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09197406422/2023-08-25_relatorio_repasses_09197406422.xlsx
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -17608,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18708,7 +18708,7 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N390">
         <v>0</v>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N393">
         <v>0</v>
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N397">
         <v>0</v>
@@ -19456,7 +19456,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
         <v>0</v>
@@ -19500,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N410">
         <v>0</v>
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -20072,7 +20072,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -21040,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21304,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21348,7 +21348,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N450">
         <v>0</v>
@@ -21568,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N455">
         <v>0</v>
@@ -21788,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N461">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N492">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="M502">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N505">
         <v>0</v>
@@ -23812,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N506">
         <v>0</v>
@@ -24560,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N523">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N524">
         <v>0</v>
@@ -25660,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N548">
         <v>0</v>
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -26232,7 +26232,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26364,7 +26364,7 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N564">
         <v>0</v>
@@ -26540,7 +26540,7 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N568">
         <v>0</v>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27200,7 +27200,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N590">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N601">
         <v>0</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N607">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N609">
         <v>0</v>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28872,7 +28872,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="M628">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N628">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="M641">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N641">
         <v>0</v>
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N642">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N643">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N653">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -31072,7 +31072,7 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N671">
         <v>0</v>
@@ -40004,7 +40004,7 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N874">
         <v>0</v>
@@ -40048,7 +40048,7 @@
         <v>0</v>
       </c>
       <c r="M875">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N875">
         <v>0</v>
@@ -40092,7 +40092,7 @@
         <v>0</v>
       </c>
       <c r="M876">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N876">
         <v>0</v>
@@ -40224,7 +40224,7 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N879">
         <v>0</v>
@@ -40268,7 +40268,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40444,7 +40444,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -41192,7 +41192,7 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N901">
         <v>0</v>
@@ -41280,7 +41280,7 @@
         <v>0</v>
       </c>
       <c r="M903">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N903">
         <v>0</v>
@@ -41588,7 +41588,7 @@
         <v>0</v>
       </c>
       <c r="M910">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N910">
         <v>0</v>
@@ -41676,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -41808,7 +41808,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -42512,7 +42512,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -42908,7 +42908,7 @@
         <v>0</v>
       </c>
       <c r="M940">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N940">
         <v>0</v>
@@ -42952,7 +42952,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -44932,7 +44932,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -45020,7 +45020,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -45680,7 +45680,7 @@
         <v>0</v>
       </c>
       <c r="M1003">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1003">
         <v>0</v>
@@ -45768,7 +45768,7 @@
         <v>0</v>
       </c>
       <c r="M1005">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1005">
         <v>0</v>
@@ -46560,7 +46560,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -46780,7 +46780,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -46824,7 +46824,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -47044,7 +47044,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -47088,7 +47088,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -47176,7 +47176,7 @@
         <v>0</v>
       </c>
       <c r="M1037">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1037">
         <v>0</v>
@@ -47220,7 +47220,7 @@
         <v>0</v>
       </c>
       <c r="M1038">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1038">
         <v>0</v>
@@ -47264,7 +47264,7 @@
         <v>0</v>
       </c>
       <c r="M1039">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1039">
         <v>0</v>
@@ -47616,7 +47616,7 @@
         <v>0</v>
       </c>
       <c r="M1047">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1047">
         <v>0</v>
@@ -47704,7 +47704,7 @@
         <v>0</v>
       </c>
       <c r="M1049">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1049">
         <v>0</v>
@@ -47748,7 +47748,7 @@
         <v>0</v>
       </c>
       <c r="M1050">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1050">
         <v>0</v>
@@ -49156,7 +49156,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -49464,7 +49464,7 @@
         <v>0</v>
       </c>
       <c r="M1089">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1089">
         <v>0</v>
@@ -49508,7 +49508,7 @@
         <v>0</v>
       </c>
       <c r="M1090">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1090">
         <v>0</v>
@@ -49596,7 +49596,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -49640,7 +49640,7 @@
         <v>0</v>
       </c>
       <c r="M1093">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1093">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/09197406422/2023-08-25_relatorio_repasses_09197406422.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09197406422/2023-08-25_relatorio_repasses_09197406422.xlsx
@@ -5816,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
-        <v>13.592</v>
+        <v>10.194</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7796,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8148,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
-        <v>44.236</v>
+        <v>33.177</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8280,10 +8280,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
-        <v>13.192</v>
+        <v>9.893999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8412,10 +8412,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N156">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8456,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N157">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8632,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8676,10 +8676,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8720,10 +8720,10 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N163">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8808,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8852,10 +8852,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N166">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8896,10 +8896,10 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8940,10 +8940,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8984,10 +8984,10 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N169">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -9028,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N170">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N171">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9116,10 +9116,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N172">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -9160,10 +9160,10 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N174">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9292,10 +9292,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N176">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N177">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9380,10 +9380,10 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N178">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N179">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9468,10 +9468,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N180">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9512,10 +9512,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9600,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N183">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9776,10 +9776,10 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9820,10 +9820,10 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9864,10 +9864,10 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N189">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9908,10 +9908,10 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9952,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N191">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9996,10 +9996,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10040,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N193">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -10084,10 +10084,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N194">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -10172,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10260,10 +10260,10 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -10304,10 +10304,10 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N199">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N204">
-        <v>12.6</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10568,10 +10568,10 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N206">
-        <v>2.608</v>
+        <v>1.956</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10656,10 +10656,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10700,10 +10700,10 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10744,10 +10744,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10788,10 +10788,10 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10876,10 +10876,10 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10964,10 +10964,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11096,10 +11096,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11140,10 +11140,10 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N218">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11184,10 +11184,10 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11228,10 +11228,10 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -11272,10 +11272,10 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -11360,10 +11360,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11404,10 +11404,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11448,10 +11448,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N225">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11492,10 +11492,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11536,10 +11536,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11580,10 +11580,10 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
-        <v>2.608</v>
+        <v>1.956</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11668,10 +11668,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11712,10 +11712,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11844,10 +11844,10 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11888,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N235">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11932,10 +11932,10 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11976,10 +11976,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12020,10 +12020,10 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
-        <v>13.192</v>
+        <v>9.893999999999998</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12064,10 +12064,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
-        <v>35.7</v>
+        <v>26.775</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12108,10 +12108,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12152,10 +12152,10 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N241">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12196,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N242">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12240,10 +12240,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N243">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12284,10 +12284,10 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N244">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12328,10 +12328,10 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N245">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12372,10 +12372,10 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -12416,10 +12416,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N247">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12460,10 +12460,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N248">
-        <v>62.216</v>
+        <v>46.662</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12504,10 +12504,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
-        <v>62.216</v>
+        <v>46.662</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12548,10 +12548,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N251">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12636,10 +12636,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N252">
-        <v>16.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12680,10 +12680,10 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N253">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12724,10 +12724,10 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N254">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12768,10 +12768,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N255">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12812,10 +12812,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12856,10 +12856,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12900,10 +12900,10 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N258">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12944,10 +12944,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N259">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13032,10 +13032,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -13076,10 +13076,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13120,10 +13120,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -13208,10 +13208,10 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N265">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -13252,10 +13252,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N266">
-        <v>4.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -13296,10 +13296,10 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N267">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -13340,10 +13340,10 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N268">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -13384,10 +13384,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -13472,10 +13472,10 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -13516,10 +13516,10 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -13560,10 +13560,10 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -13604,10 +13604,10 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N274">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -13648,10 +13648,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -13736,10 +13736,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13780,10 +13780,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N278">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13824,10 +13824,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N279">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13956,10 +13956,10 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N282">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -14000,10 +14000,10 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N283">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -14044,10 +14044,10 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N284">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -14088,10 +14088,10 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N285">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -14132,10 +14132,10 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N286">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -14176,10 +14176,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N287">
-        <v>13.192</v>
+        <v>9.893999999999998</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -14220,10 +14220,10 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N288">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -14264,10 +14264,10 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N289">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -14308,10 +14308,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N290">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -14352,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
-        <v>39.712</v>
+        <v>29.784</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -14396,10 +14396,10 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14440,10 +14440,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14528,10 +14528,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14572,10 +14572,10 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -14660,10 +14660,10 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14704,10 +14704,10 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14748,10 +14748,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14792,10 +14792,10 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N301">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -14836,10 +14836,10 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N302">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -14880,10 +14880,10 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N303">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14924,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14968,10 +14968,10 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -15012,10 +15012,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -15056,10 +15056,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15100,10 +15100,10 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N308">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -15144,10 +15144,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15188,10 +15188,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15232,10 +15232,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15276,10 +15276,10 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N312">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15320,10 +15320,10 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N313">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15364,10 +15364,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15408,10 +15408,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
-        <v>6.984000000000001</v>
+        <v>5.238</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15452,10 +15452,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
-        <v>6.984000000000001</v>
+        <v>5.238</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15496,10 +15496,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N317">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15540,10 +15540,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N318">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15584,10 +15584,10 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N319">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15628,10 +15628,10 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N320">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15672,10 +15672,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15760,10 +15760,10 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N323">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15804,10 +15804,10 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N324">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -15848,10 +15848,10 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N325">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -15892,10 +15892,10 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N326">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15936,10 +15936,10 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N327">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15980,10 +15980,10 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
-        <v>50.672</v>
+        <v>38.004</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -16024,10 +16024,10 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -16068,10 +16068,10 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N330">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -16112,10 +16112,10 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -16156,10 +16156,10 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N332">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -16200,10 +16200,10 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -16244,10 +16244,10 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N334">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -16288,10 +16288,10 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N335">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16332,10 +16332,10 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N336">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -16376,10 +16376,10 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N337">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16420,10 +16420,10 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N338">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -16464,10 +16464,10 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -16728,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16816,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -17520,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17564,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
         <v>0</v>
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -18400,7 +18400,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N393">
         <v>0</v>
@@ -18884,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N397">
         <v>0</v>
@@ -19544,10 +19544,10 @@
         <v>1</v>
       </c>
       <c r="M409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N409">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19676,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N416">
         <v>0</v>
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N417">
         <v>0</v>
@@ -19940,7 +19940,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -20116,7 +20116,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20600,7 +20600,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -20644,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
       <c r="M435">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N435">
         <v>0</v>
@@ -21128,7 +21128,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -21172,7 +21172,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -21304,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21436,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -21568,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N455">
         <v>0</v>
@@ -21612,7 +21612,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N456">
         <v>0</v>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N457">
         <v>0</v>
@@ -21700,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N458">
         <v>0</v>
@@ -21788,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N463">
         <v>0</v>
@@ -21964,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="M464">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N464">
         <v>0</v>
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="M466">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N466">
         <v>0</v>
@@ -22096,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="M467">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N467">
         <v>0</v>
@@ -22140,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N473">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N474">
         <v>0</v>
@@ -22712,7 +22712,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N481">
         <v>0</v>
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N493">
         <v>0</v>
@@ -23284,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N494">
         <v>0</v>
@@ -23328,7 +23328,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N497">
         <v>0</v>
@@ -23680,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="M503">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N503">
         <v>0</v>
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N505">
         <v>0</v>
@@ -23900,7 +23900,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N508">
         <v>0</v>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N510">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -24076,7 +24076,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -24120,7 +24120,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N522">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N524">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N525">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -25000,7 +25000,7 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N533">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -25088,7 +25088,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N535">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N536">
         <v>0</v>
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -25264,7 +25264,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N540">
         <v>0</v>
@@ -25660,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N548">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -26232,7 +26232,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26408,7 +26408,7 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N565">
         <v>0</v>
@@ -26496,7 +26496,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26584,7 +26584,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -26628,7 +26628,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
         <v>0</v>
@@ -26672,7 +26672,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N571">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -26760,10 +26760,10 @@
         <v>1</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N573">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="M575">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N575">
         <v>0</v>
@@ -26936,7 +26936,7 @@
         <v>0</v>
       </c>
       <c r="M577">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N577">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27112,7 +27112,7 @@
         <v>0</v>
       </c>
       <c r="M581">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N581">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N589">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N590">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N591">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N599">
         <v>0</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -28212,7 +28212,7 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N606">
         <v>0</v>
@@ -28300,7 +28300,7 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N608">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N609">
         <v>0</v>
@@ -28388,7 +28388,7 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N610">
         <v>0</v>
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28916,7 +28916,7 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N622">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="M641">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N641">
         <v>0</v>
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N642">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N643">
         <v>0</v>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N644">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="M645">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N645">
         <v>0</v>
@@ -29972,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N646">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -30412,10 +30412,10 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N656">
-        <v>17.764</v>
+        <v>13.323</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -30456,10 +30456,10 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -30500,7 +30500,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -30544,7 +30544,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30588,7 +30588,7 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N660">
         <v>0</v>
@@ -30632,7 +30632,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30676,7 +30676,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -30720,7 +30720,7 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N663">
         <v>0</v>
@@ -30940,7 +30940,7 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N668">
         <v>0</v>
@@ -31160,7 +31160,7 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N673">
         <v>0</v>
@@ -32832,10 +32832,10 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N711">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="712" spans="1:14">
@@ -33096,10 +33096,10 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N717">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="718" spans="1:14">
@@ -33360,10 +33360,10 @@
         <v>0</v>
       </c>
       <c r="M723">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N723">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="724" spans="1:14">
@@ -33448,10 +33448,10 @@
         <v>0</v>
       </c>
       <c r="M725">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N725">
-        <v>6.968000000000001</v>
+        <v>5.226</v>
       </c>
     </row>
     <row r="726" spans="1:14">
@@ -33492,10 +33492,10 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N726">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="727" spans="1:14">
@@ -33536,10 +33536,10 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N727">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="728" spans="1:14">
@@ -33580,10 +33580,10 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N728">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="729" spans="1:14">
@@ -33624,10 +33624,10 @@
         <v>0</v>
       </c>
       <c r="M729">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N729">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="730" spans="1:14">
@@ -33668,10 +33668,10 @@
         <v>0</v>
       </c>
       <c r="M730">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N730">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="731" spans="1:14">
@@ -33712,10 +33712,10 @@
         <v>0</v>
       </c>
       <c r="M731">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N731">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="732" spans="1:14">
@@ -33756,10 +33756,10 @@
         <v>0</v>
       </c>
       <c r="M732">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N732">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="733" spans="1:14">
@@ -33800,10 +33800,10 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N733">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="734" spans="1:14">
@@ -33844,10 +33844,10 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N734">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:14">
@@ -33888,10 +33888,10 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N735">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -33932,10 +33932,10 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N736">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -33976,10 +33976,10 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N737">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:14">
@@ -34020,10 +34020,10 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N738">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="739" spans="1:14">
@@ -34064,10 +34064,10 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="740" spans="1:14">
@@ -34108,10 +34108,10 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="741" spans="1:14">
@@ -34152,10 +34152,10 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N741">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="742" spans="1:14">
@@ -34240,10 +34240,10 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N743">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="744" spans="1:14">
@@ -34328,10 +34328,10 @@
         <v>0</v>
       </c>
       <c r="M745">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N745">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="746" spans="1:14">
@@ -34372,10 +34372,10 @@
         <v>0</v>
       </c>
       <c r="M746">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N746">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="747" spans="1:14">
@@ -34416,10 +34416,10 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N747">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="748" spans="1:14">
@@ -34460,10 +34460,10 @@
         <v>0</v>
       </c>
       <c r="M748">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N748">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="749" spans="1:14">
@@ -34504,10 +34504,10 @@
         <v>0</v>
       </c>
       <c r="M749">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N749">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="750" spans="1:14">
@@ -34548,10 +34548,10 @@
         <v>0</v>
       </c>
       <c r="M750">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N750">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="751" spans="1:14">
@@ -34592,10 +34592,10 @@
         <v>0</v>
       </c>
       <c r="M751">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N751">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="752" spans="1:14">
@@ -34636,10 +34636,10 @@
         <v>0</v>
       </c>
       <c r="M752">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N752">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="753" spans="1:14">
@@ -34680,10 +34680,10 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N753">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754" spans="1:14">
@@ -34724,10 +34724,10 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N754">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="755" spans="1:14">
@@ -34768,10 +34768,10 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N755">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="756" spans="1:14">
@@ -34812,10 +34812,10 @@
         <v>0</v>
       </c>
       <c r="M756">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N756">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="757" spans="1:14">
@@ -34900,10 +34900,10 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N758">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="759" spans="1:14">
@@ -34944,10 +34944,10 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N759">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="760" spans="1:14">
@@ -34988,10 +34988,10 @@
         <v>0</v>
       </c>
       <c r="M760">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N760">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="761" spans="1:14">
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N761">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="762" spans="1:14">
@@ -35076,10 +35076,10 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N762">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="763" spans="1:14">
@@ -35120,10 +35120,10 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N763">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="764" spans="1:14">
@@ -35164,10 +35164,10 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N764">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="765" spans="1:14">
@@ -35208,10 +35208,10 @@
         <v>0</v>
       </c>
       <c r="M765">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N765">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="766" spans="1:14">
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="M766">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N766">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="767" spans="1:14">
@@ -35384,10 +35384,10 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N769">
-        <v>10.684</v>
+        <v>8.013</v>
       </c>
     </row>
     <row r="770" spans="1:14">
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="M770">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N770">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="771" spans="1:14">
@@ -35472,10 +35472,10 @@
         <v>0</v>
       </c>
       <c r="M771">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N771">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="772" spans="1:14">
@@ -35516,10 +35516,10 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N772">
-        <v>19.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="773" spans="1:14">
@@ -35648,10 +35648,10 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N775">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="776" spans="1:14">
@@ -35692,10 +35692,10 @@
         <v>0</v>
       </c>
       <c r="M776">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N776">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="1:14">
@@ -35736,10 +35736,10 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N777">
-        <v>12.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="778" spans="1:14">
@@ -35780,10 +35780,10 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N778">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="779" spans="1:14">
@@ -35868,10 +35868,10 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N780">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="781" spans="1:14">
@@ -35912,10 +35912,10 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N781">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="782" spans="1:14">
@@ -35956,10 +35956,10 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N782">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:14">
@@ -36000,10 +36000,10 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N783">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784" spans="1:14">
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N784">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="785" spans="1:14">
@@ -36088,10 +36088,10 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N785">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="786" spans="1:14">
@@ -36132,10 +36132,10 @@
         <v>0</v>
       </c>
       <c r="M786">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N786">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="787" spans="1:14">
@@ -36176,10 +36176,10 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N787">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="788" spans="1:14">
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="M788">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N788">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="789" spans="1:14">
@@ -36264,10 +36264,10 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N789">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="790" spans="1:14">
@@ -36308,10 +36308,10 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N790">
-        <v>0.068</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="791" spans="1:14">
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N791">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -36396,10 +36396,10 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N792">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="793" spans="1:14">
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N793">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="794" spans="1:14">
@@ -36484,10 +36484,10 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N794">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="795" spans="1:14">
@@ -36528,10 +36528,10 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N795">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="796" spans="1:14">
@@ -36572,10 +36572,10 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N796">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="797" spans="1:14">
@@ -36616,10 +36616,10 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N797">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="798" spans="1:14">
@@ -36660,10 +36660,10 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N798">
-        <v>4.18</v>
+        <v>3.135</v>
       </c>
     </row>
     <row r="799" spans="1:14">
@@ -36704,10 +36704,10 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N799">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="800" spans="1:14">
@@ -36748,10 +36748,10 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N800">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="801" spans="1:14">
@@ -36792,10 +36792,10 @@
         <v>0</v>
       </c>
       <c r="M801">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N801">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802" spans="1:14">
@@ -36836,10 +36836,10 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N802">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="803" spans="1:14">
@@ -36880,10 +36880,10 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N803">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="804" spans="1:14">
@@ -36968,10 +36968,10 @@
         <v>0</v>
       </c>
       <c r="M805">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N805">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="806" spans="1:14">
@@ -37012,10 +37012,10 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N806">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="807" spans="1:14">
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="M809">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N809">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="810" spans="1:14">
@@ -37188,10 +37188,10 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N810">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="811" spans="1:14">
@@ -37232,10 +37232,10 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N811">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="812" spans="1:14">
@@ -37276,10 +37276,10 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N812">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="813" spans="1:14">
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="M813">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N813">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="814" spans="1:14">
@@ -37364,10 +37364,10 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N814">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="815" spans="1:14">
@@ -37408,10 +37408,10 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N815">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="816" spans="1:14">
@@ -37452,10 +37452,10 @@
         <v>0</v>
       </c>
       <c r="M816">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N816">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="817" spans="1:14">
@@ -37496,10 +37496,10 @@
         <v>0</v>
       </c>
       <c r="M817">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N817">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="818" spans="1:14">
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="M818">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N818">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="819" spans="1:14">
@@ -37584,10 +37584,10 @@
         <v>0</v>
       </c>
       <c r="M819">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N819">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="820" spans="1:14">
@@ -37628,10 +37628,10 @@
         <v>0</v>
       </c>
       <c r="M820">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N820">
-        <v>16.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="821" spans="1:14">
@@ -37672,10 +37672,10 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N821">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="822" spans="1:14">
@@ -37716,10 +37716,10 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N822">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="823" spans="1:14">
@@ -37760,10 +37760,10 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N823">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="824" spans="1:14">
@@ -37804,10 +37804,10 @@
         <v>0</v>
       </c>
       <c r="M824">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N824">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="825" spans="1:14">
@@ -37848,10 +37848,10 @@
         <v>0</v>
       </c>
       <c r="M825">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N825">
-        <v>1.692</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="826" spans="1:14">
@@ -37892,10 +37892,10 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N826">
-        <v>0.068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:14">
@@ -37936,10 +37936,10 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N827">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="828" spans="1:14">
@@ -37980,10 +37980,10 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N828">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="829" spans="1:14">
@@ -38024,10 +38024,10 @@
         <v>0</v>
       </c>
       <c r="M829">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N829">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="830" spans="1:14">
@@ -38068,10 +38068,10 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N830">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="831" spans="1:14">
@@ -38112,10 +38112,10 @@
         <v>0</v>
       </c>
       <c r="M831">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N831">
-        <v>15.34</v>
+        <v>11.505</v>
       </c>
     </row>
     <row r="832" spans="1:14">
@@ -38244,10 +38244,10 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N834">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="835" spans="1:14">
@@ -38288,10 +38288,10 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N835">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="836" spans="1:14">
@@ -38332,10 +38332,10 @@
         <v>0</v>
       </c>
       <c r="M836">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N836">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="837" spans="1:14">
@@ -38376,10 +38376,10 @@
         <v>0</v>
       </c>
       <c r="M837">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N837">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="838" spans="1:14">
@@ -38420,10 +38420,10 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N838">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="839" spans="1:14">
@@ -38464,10 +38464,10 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N839">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="840" spans="1:14">
@@ -38508,10 +38508,10 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N840">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="841" spans="1:14">
@@ -38552,10 +38552,10 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N841">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="842" spans="1:14">
@@ -38596,10 +38596,10 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N842">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:14">
@@ -38640,10 +38640,10 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N843">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="844" spans="1:14">
@@ -38684,10 +38684,10 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N844">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="845" spans="1:14">
@@ -38728,10 +38728,10 @@
         <v>0</v>
       </c>
       <c r="M845">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N845">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="846" spans="1:14">
@@ -38772,10 +38772,10 @@
         <v>0</v>
       </c>
       <c r="M846">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N846">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="847" spans="1:14">
@@ -38816,10 +38816,10 @@
         <v>0</v>
       </c>
       <c r="M847">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N847">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848" spans="1:14">
@@ -38860,7 +38860,7 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N848">
         <v>0</v>
@@ -38904,7 +38904,7 @@
         <v>0</v>
       </c>
       <c r="M849">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N849">
         <v>0</v>
@@ -38948,7 +38948,7 @@
         <v>0</v>
       </c>
       <c r="M850">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N850">
         <v>0</v>
@@ -38992,7 +38992,7 @@
         <v>0</v>
       </c>
       <c r="M851">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N851">
         <v>0</v>
@@ -39080,7 +39080,7 @@
         <v>0</v>
       </c>
       <c r="M853">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N853">
         <v>0</v>
@@ -39124,7 +39124,7 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N854">
         <v>0</v>
@@ -39168,7 +39168,7 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N855">
         <v>0</v>
@@ -39212,7 +39212,7 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N856">
         <v>0</v>
@@ -39256,7 +39256,7 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N857">
         <v>0</v>
@@ -39300,7 +39300,7 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N858">
         <v>0</v>
@@ -39432,7 +39432,7 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N861">
         <v>0</v>
@@ -39476,7 +39476,7 @@
         <v>0</v>
       </c>
       <c r="M862">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N862">
         <v>0</v>
@@ -39520,7 +39520,7 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N863">
         <v>0</v>
@@ -39564,7 +39564,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39608,7 +39608,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39872,7 +39872,7 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N871">
         <v>0</v>
@@ -39960,7 +39960,7 @@
         <v>0</v>
       </c>
       <c r="M873">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N873">
         <v>0</v>
@@ -40048,7 +40048,7 @@
         <v>0</v>
       </c>
       <c r="M875">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N875">
         <v>0</v>
@@ -40092,7 +40092,7 @@
         <v>0</v>
       </c>
       <c r="M876">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N876">
         <v>0</v>
@@ -40268,7 +40268,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40444,7 +40444,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>0</v>
       </c>
       <c r="M885">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N885">
         <v>0</v>
@@ -40532,7 +40532,7 @@
         <v>0</v>
       </c>
       <c r="M886">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N886">
         <v>0</v>
@@ -40576,7 +40576,7 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N887">
         <v>0</v>
@@ -40620,7 +40620,7 @@
         <v>0</v>
       </c>
       <c r="M888">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N888">
         <v>0</v>
@@ -40708,7 +40708,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -40928,7 +40928,7 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N895">
         <v>0</v>
@@ -41192,7 +41192,7 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N901">
         <v>0</v>
@@ -41676,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -41720,7 +41720,7 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N913">
         <v>0</v>
@@ -41808,7 +41808,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -41852,7 +41852,7 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N916">
         <v>0</v>
@@ -41896,7 +41896,7 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N917">
         <v>0</v>
@@ -41940,7 +41940,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="M924">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N924">
         <v>0</v>
@@ -42248,7 +42248,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -42380,7 +42380,7 @@
         <v>0</v>
       </c>
       <c r="M928">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N928">
         <v>0</v>
@@ -42424,7 +42424,7 @@
         <v>0</v>
       </c>
       <c r="M929">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N929">
         <v>0</v>
@@ -42952,7 +42952,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -42996,7 +42996,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -43040,7 +43040,7 @@
         <v>0</v>
       </c>
       <c r="M943">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N943">
         <v>0</v>
@@ -43304,7 +43304,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43348,7 +43348,7 @@
         <v>0</v>
       </c>
       <c r="M950">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N950">
         <v>0</v>
@@ -43392,7 +43392,7 @@
         <v>0</v>
       </c>
       <c r="M951">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N951">
         <v>0</v>
@@ -43832,7 +43832,7 @@
         <v>0</v>
       </c>
       <c r="M961">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N961">
         <v>0</v>
@@ -43876,7 +43876,7 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N962">
         <v>0</v>
@@ -43964,7 +43964,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -44008,7 +44008,7 @@
         <v>0</v>
       </c>
       <c r="M965">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N965">
         <v>0</v>
@@ -44492,7 +44492,7 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N976">
         <v>0</v>
@@ -44536,7 +44536,7 @@
         <v>0</v>
       </c>
       <c r="M977">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N977">
         <v>0</v>
@@ -44756,7 +44756,7 @@
         <v>0</v>
       </c>
       <c r="M982">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N982">
         <v>0</v>
@@ -44800,7 +44800,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -44844,7 +44844,7 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N984">
         <v>0</v>
@@ -44932,7 +44932,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -45108,7 +45108,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -45152,7 +45152,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -45636,7 +45636,7 @@
         <v>0</v>
       </c>
       <c r="M1002">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1002">
         <v>0</v>
@@ -45724,7 +45724,7 @@
         <v>0</v>
       </c>
       <c r="M1004">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1004">
         <v>0</v>
@@ -45768,7 +45768,7 @@
         <v>0</v>
       </c>
       <c r="M1005">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1005">
         <v>0</v>
@@ -45812,7 +45812,7 @@
         <v>0</v>
       </c>
       <c r="M1006">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1006">
         <v>0</v>
@@ -45900,7 +45900,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -46340,7 +46340,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -46560,7 +46560,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -46604,7 +46604,7 @@
         <v>0</v>
       </c>
       <c r="M1024">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1024">
         <v>0</v>
@@ -46648,7 +46648,7 @@
         <v>0</v>
       </c>
       <c r="M1025">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1025">
         <v>0</v>
@@ -46780,7 +46780,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -46824,7 +46824,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -47000,7 +47000,7 @@
         <v>0</v>
       </c>
       <c r="M1033">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1033">
         <v>0</v>
@@ -47044,7 +47044,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -47176,7 +47176,7 @@
         <v>0</v>
       </c>
       <c r="M1037">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1037">
         <v>0</v>
@@ -47220,7 +47220,7 @@
         <v>0</v>
       </c>
       <c r="M1038">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1038">
         <v>0</v>
@@ -47264,7 +47264,7 @@
         <v>0</v>
       </c>
       <c r="M1039">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1039">
         <v>0</v>
@@ -47660,7 +47660,7 @@
         <v>0</v>
       </c>
       <c r="M1048">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1048">
         <v>0</v>
@@ -47704,7 +47704,7 @@
         <v>0</v>
       </c>
       <c r="M1049">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1049">
         <v>0</v>
@@ -47748,7 +47748,7 @@
         <v>0</v>
       </c>
       <c r="M1050">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1050">
         <v>0</v>
@@ -48188,7 +48188,7 @@
         <v>0</v>
       </c>
       <c r="M1060">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1060">
         <v>0</v>
@@ -48232,7 +48232,7 @@
         <v>0</v>
       </c>
       <c r="M1061">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1061">
         <v>0</v>
@@ -48584,7 +48584,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -48672,7 +48672,7 @@
         <v>0</v>
       </c>
       <c r="M1071">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1071">
         <v>0</v>
@@ -48804,10 +48804,10 @@
         <v>0.5797099999999999</v>
       </c>
       <c r="M1074">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1074">
-        <v>23.1884</v>
+        <v>13.91304</v>
       </c>
     </row>
     <row r="1075" spans="1:14">
@@ -49156,7 +49156,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -49244,7 +49244,7 @@
         <v>0</v>
       </c>
       <c r="M1084">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1084">
         <v>0</v>
@@ -49376,7 +49376,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -49596,7 +49596,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -49640,7 +49640,7 @@
         <v>0</v>
       </c>
       <c r="M1093">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1093">
         <v>0</v>
@@ -49684,7 +49684,7 @@
         <v>0</v>
       </c>
       <c r="M1094">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1094">
         <v>0</v>
@@ -49904,7 +49904,7 @@
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1099">
         <v>0</v>
@@ -49948,7 +49948,7 @@
         <v>0</v>
       </c>
       <c r="M1100">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1100">
         <v>0</v>
@@ -49992,7 +49992,7 @@
         <v>0</v>
       </c>
       <c r="M1101">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1101">
         <v>0</v>
